--- a/create-data/create_reference_data/source/certificate_types.xlsx
+++ b/create-data/create_reference_data/source/certificate_types.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\tariff\create-data\migrate_reference_data\source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\tariff\create-data\create_reference_data\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{788C4B8B-0A2C-4D28-97AF-E42E9AC0478D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7A28CD-89A1-42E8-89A9-2A78FEF72640}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="9555" xr2:uid="{B724F9FD-527C-4A95-969C-B8CCC70DC96A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="9555" activeTab="1" xr2:uid="{B724F9FD-527C-4A95-969C-B8CCC70DC96A}"/>
   </bookViews>
   <sheets>
     <sheet name="Updated" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -37,16 +37,10 @@
     <t>CERTIFICATE_TYPE_ID</t>
   </si>
   <si>
-    <t>M</t>
+    <t>National Document</t>
   </si>
   <si>
-    <t>A new certificate type</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>New certificate of authenticity</t>
+    <t>VALIDITY START DATE</t>
   </si>
 </sst>
 </file>
@@ -64,18 +58,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -90,31 +90,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -430,33 +433,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5B35DA-628F-40A1-97BB-3E7F8D8C3603}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="57.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="57.42578125" style="3" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -467,37 +462,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F64BD5-F463-4A11-973E-8749F58C3A6F}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="21.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>9</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>3</v>
+      <c r="C2" s="8">
+        <v>25569</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>